--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -645,27 +645,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17515-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17515-2022.xlsx", "A 17515-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17515-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17515-2022.png", "A 17515-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17515-2022.docx", "A 17515-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17515-2022.docx", "A 17515-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17515-2022.docx", "A 17515-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17515-2022.docx", "A 17515-2022")</f>
         <v/>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,27 +739,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 54982-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 54982-2019.xlsx", "A 54982-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 54982-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 54982-2019.png", "A 54982-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 54982-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 54982-2019.docx", "A 54982-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 54982-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 54982-2019.docx", "A 54982-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 54982-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 54982-2019.docx", "A 54982-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 54982-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 54982-2019.docx", "A 54982-2019")</f>
         <v/>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,27 +837,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 3186-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 3186-2019.xlsx", "A 3186-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 3186-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 3186-2019.png", "A 3186-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 3186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 3186-2019.docx", "A 3186-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 3186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 3186-2019.docx", "A 3186-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 3186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 3186-2019.docx", "A 3186-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 3186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 3186-2019.docx", "A 3186-2019")</f>
         <v/>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,27 +933,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 12489-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 12489-2020.xlsx", "A 12489-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 12489-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 12489-2020.png", "A 12489-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 12489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 12489-2020.docx", "A 12489-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 12489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 12489-2020.docx", "A 12489-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 12489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 12489-2020.docx", "A 12489-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 12489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 12489-2020.docx", "A 12489-2020")</f>
         <v/>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,27 +1024,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 55783-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 55783-2022.xlsx", "A 55783-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 55783-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 55783-2022.png", "A 55783-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 55783-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 55783-2022.docx", "A 55783-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 55783-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 55783-2022.docx", "A 55783-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 55783-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 55783-2022.docx", "A 55783-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 55783-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 55783-2022.docx", "A 55783-2022")</f>
         <v/>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,27 +1114,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 66948-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 66948-2020.xlsx", "A 66948-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 66948-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 66948-2020.png", "A 66948-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 66948-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 66948-2020.docx", "A 66948-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 66948-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 66948-2020.docx", "A 66948-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 66948-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 66948-2020.docx", "A 66948-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 66948-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 66948-2020.docx", "A 66948-2020")</f>
         <v/>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,27 +1209,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 16473-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 16473-2021.xlsx", "A 16473-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 16473-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 16473-2021.png", "A 16473-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 16473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 16473-2021.docx", "A 16473-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 16473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 16473-2021.docx", "A 16473-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 16473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 16473-2021.docx", "A 16473-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 16473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 16473-2021.docx", "A 16473-2021")</f>
         <v/>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,27 +1297,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 34818-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 34818-2019.xlsx", "A 34818-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 34818-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 34818-2019.png", "A 34818-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 34818-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 34818-2019.docx", "A 34818-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 34818-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 34818-2019.docx", "A 34818-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 34818-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 34818-2019.docx", "A 34818-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 34818-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 34818-2019.docx", "A 34818-2019")</f>
         <v/>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,27 +1385,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 3286-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 3286-2020.xlsx", "A 3286-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 3286-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 3286-2020.png", "A 3286-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 3286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 3286-2020.docx", "A 3286-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 3286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 3286-2020.docx", "A 3286-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 3286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 3286-2020.docx", "A 3286-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 3286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 3286-2020.docx", "A 3286-2020")</f>
         <v/>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,27 +1473,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 8661-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 8661-2020.xlsx", "A 8661-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 8661-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 8661-2020.png", "A 8661-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 8661-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 8661-2020.docx", "A 8661-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 8661-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 8661-2020.docx", "A 8661-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 8661-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 8661-2020.docx", "A 8661-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 8661-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 8661-2020.docx", "A 8661-2020")</f>
         <v/>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 40970-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 40970-2021.xlsx", "A 40970-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 40970-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 40970-2021.png", "A 40970-2021")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/knärot/A 40970-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/knärot/A 40970-2021.png", "A 40970-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 40970-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 40970-2021.docx", "A 40970-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 40970-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 40970-2021.docx", "A 40970-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 40970-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 40970-2021.docx", "A 40970-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 40970-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 40970-2021.docx", "A 40970-2021")</f>
         <v/>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,27 +1663,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 56271-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 56271-2021.xlsx", "A 56271-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 56271-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 56271-2021.png", "A 56271-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 56271-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 56271-2021.docx", "A 56271-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 56271-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 56271-2021.docx", "A 56271-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 56271-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 56271-2021.docx", "A 56271-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 56271-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 56271-2021.docx", "A 56271-2021")</f>
         <v/>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,27 +1751,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 6352-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 6352-2023.xlsx", "A 6352-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 6352-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 6352-2023.png", "A 6352-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 6352-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 6352-2023.docx", "A 6352-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 6352-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 6352-2023.docx", "A 6352-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 6352-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 6352-2023.docx", "A 6352-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 6352-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 6352-2023.docx", "A 6352-2023")</f>
         <v/>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,27 +1843,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 5622-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 5622-2019.xlsx", "A 5622-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 5622-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 5622-2019.png", "A 5622-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 5622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 5622-2019.docx", "A 5622-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 5622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 5622-2019.docx", "A 5622-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 5622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 5622-2019.docx", "A 5622-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 5622-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 5622-2019.docx", "A 5622-2019")</f>
         <v/>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1930,27 +1930,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 35697-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 35697-2019.xlsx", "A 35697-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 35697-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 35697-2019.png", "A 35697-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 35697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 35697-2019.docx", "A 35697-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 35697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 35697-2019.docx", "A 35697-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 35697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 35697-2019.docx", "A 35697-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 35697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 35697-2019.docx", "A 35697-2019")</f>
         <v/>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2017,27 +2017,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 44668-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 44668-2020.xlsx", "A 44668-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 44668-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 44668-2020.png", "A 44668-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 44668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 44668-2020.docx", "A 44668-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 44668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 44668-2020.docx", "A 44668-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 44668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 44668-2020.docx", "A 44668-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 44668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 44668-2020.docx", "A 44668-2020")</f>
         <v/>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,27 +2109,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17502-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17502-2022.xlsx", "A 17502-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17502-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17502-2022.png", "A 17502-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17502-2022.docx", "A 17502-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17502-2022.docx", "A 17502-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17502-2022.docx", "A 17502-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17502-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17502-2022.docx", "A 17502-2022")</f>
         <v/>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,27 +2201,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17518-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17518-2022.xlsx", "A 17518-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17518-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17518-2022.png", "A 17518-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17518-2022.docx", "A 17518-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17518-2022.docx", "A 17518-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17518-2022.docx", "A 17518-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17518-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17518-2022.docx", "A 17518-2022")</f>
         <v/>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2288,27 +2288,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 32571-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 32571-2022.xlsx", "A 32571-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 32571-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 32571-2022.png", "A 32571-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 32571-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 32571-2022.docx", "A 32571-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 32571-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 32571-2022.docx", "A 32571-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 32571-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 32571-2022.docx", "A 32571-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 32571-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 32571-2022.docx", "A 32571-2022")</f>
         <v/>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2374,27 +2374,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 61135-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 61135-2018.xlsx", "A 61135-2018")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 61135-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 61135-2018.png", "A 61135-2018")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 61135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 61135-2018.docx", "A 61135-2018")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 61135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 61135-2018.docx", "A 61135-2018")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 61135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 61135-2018.docx", "A 61135-2018")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 61135-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 61135-2018.docx", "A 61135-2018")</f>
         <v/>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,27 +2460,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 12051-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 12051-2019.xlsx", "A 12051-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 12051-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 12051-2019.png", "A 12051-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 12051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 12051-2019.docx", "A 12051-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 12051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 12051-2019.docx", "A 12051-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 12051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 12051-2019.docx", "A 12051-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 12051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 12051-2019.docx", "A 12051-2019")</f>
         <v/>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2546,27 +2546,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 39326-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 39326-2019.xlsx", "A 39326-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 39326-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 39326-2019.png", "A 39326-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 39326-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 39326-2019.docx", "A 39326-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 39326-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 39326-2019.docx", "A 39326-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 39326-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 39326-2019.docx", "A 39326-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 39326-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 39326-2019.docx", "A 39326-2019")</f>
         <v/>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,27 +2632,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 43487-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 43487-2019.xlsx", "A 43487-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 43487-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 43487-2019.png", "A 43487-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 43487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 43487-2019.docx", "A 43487-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 43487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 43487-2019.docx", "A 43487-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 43487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 43487-2019.docx", "A 43487-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 43487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 43487-2019.docx", "A 43487-2019")</f>
         <v/>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,27 +2718,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 45531-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 45531-2019.xlsx", "A 45531-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 45531-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 45531-2019.png", "A 45531-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 45531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 45531-2019.docx", "A 45531-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 45531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 45531-2019.docx", "A 45531-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 45531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 45531-2019.docx", "A 45531-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 45531-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 45531-2019.docx", "A 45531-2019")</f>
         <v/>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2804,27 +2804,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 16760-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 16760-2021.xlsx", "A 16760-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 16760-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 16760-2021.png", "A 16760-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 16760-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 16760-2021.docx", "A 16760-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 16760-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 16760-2021.docx", "A 16760-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 16760-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 16760-2021.docx", "A 16760-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 16760-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 16760-2021.docx", "A 16760-2021")</f>
         <v/>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,27 +2895,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 58068-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 58068-2021.xlsx", "A 58068-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 58068-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 58068-2021.png", "A 58068-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 58068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 58068-2021.docx", "A 58068-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 58068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 58068-2021.docx", "A 58068-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 58068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 58068-2021.docx", "A 58068-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 58068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 58068-2021.docx", "A 58068-2021")</f>
         <v/>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,27 +2986,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17520-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17520-2022.xlsx", "A 17520-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17520-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17520-2022.png", "A 17520-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17520-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17520-2022.docx", "A 17520-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17520-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17520-2022.docx", "A 17520-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17520-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17520-2022.docx", "A 17520-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17520-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17520-2022.docx", "A 17520-2022")</f>
         <v/>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3072,27 +3072,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 27981-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 27981-2022.xlsx", "A 27981-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 27981-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 27981-2022.png", "A 27981-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 27981-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 27981-2022.docx", "A 27981-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 27981-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 27981-2022.docx", "A 27981-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 27981-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 27981-2022.docx", "A 27981-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 27981-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 27981-2022.docx", "A 27981-2022")</f>
         <v/>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3158,27 +3158,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 11362-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 11362-2023.xlsx", "A 11362-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 11362-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 11362-2023.png", "A 11362-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 11362-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 11362-2023.docx", "A 11362-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 11362-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 11362-2023.docx", "A 11362-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 11362-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 11362-2023.docx", "A 11362-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 11362-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 11362-2023.docx", "A 11362-2023")</f>
         <v/>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3244,27 +3244,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 39873-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 39873-2023.xlsx", "A 39873-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 39873-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 39873-2023.png", "A 39873-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 39873-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 39873-2023.docx", "A 39873-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 39873-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 39873-2023.docx", "A 39873-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 39873-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 39873-2023.docx", "A 39873-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 39873-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 39873-2023.docx", "A 39873-2023")</f>
         <v/>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3329,27 +3329,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 53264-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 53264-2018.xlsx", "A 53264-2018")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 53264-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 53264-2018.png", "A 53264-2018")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 53264-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 53264-2018.docx", "A 53264-2018")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 53264-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 53264-2018.docx", "A 53264-2018")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 53264-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 53264-2018.docx", "A 53264-2018")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 53264-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 53264-2018.docx", "A 53264-2018")</f>
         <v/>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3414,27 +3414,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 59235-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 59235-2018.xlsx", "A 59235-2018")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 59235-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 59235-2018.png", "A 59235-2018")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 59235-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 59235-2018.docx", "A 59235-2018")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 59235-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 59235-2018.docx", "A 59235-2018")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 59235-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 59235-2018.docx", "A 59235-2018")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 59235-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 59235-2018.docx", "A 59235-2018")</f>
         <v/>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3504,27 +3504,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 71913-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 71913-2018.xlsx", "A 71913-2018")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 71913-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 71913-2018.png", "A 71913-2018")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 71913-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 71913-2018.docx", "A 71913-2018")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 71913-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 71913-2018.docx", "A 71913-2018")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 71913-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 71913-2018.docx", "A 71913-2018")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 71913-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 71913-2018.docx", "A 71913-2018")</f>
         <v/>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,27 +3589,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 10061-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 10061-2019.xlsx", "A 10061-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 10061-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 10061-2019.png", "A 10061-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 10061-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 10061-2019.docx", "A 10061-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 10061-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 10061-2019.docx", "A 10061-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 10061-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 10061-2019.docx", "A 10061-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 10061-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 10061-2019.docx", "A 10061-2019")</f>
         <v/>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3674,27 +3674,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 43518-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 43518-2019.xlsx", "A 43518-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 43518-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 43518-2019.png", "A 43518-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 43518-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 43518-2019.docx", "A 43518-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 43518-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 43518-2019.docx", "A 43518-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 43518-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 43518-2019.docx", "A 43518-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 43518-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 43518-2019.docx", "A 43518-2019")</f>
         <v/>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3759,27 +3759,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 49148-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 49148-2019.xlsx", "A 49148-2019")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 49148-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 49148-2019.png", "A 49148-2019")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 49148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 49148-2019.docx", "A 49148-2019")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 49148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 49148-2019.docx", "A 49148-2019")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 49148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 49148-2019.docx", "A 49148-2019")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 49148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 49148-2019.docx", "A 49148-2019")</f>
         <v/>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3849,27 +3849,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 49556-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 49556-2019.xlsx", "A 49556-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 49556-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 49556-2019.png", "A 49556-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 49556-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 49556-2019.docx", "A 49556-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 49556-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 49556-2019.docx", "A 49556-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 49556-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 49556-2019.docx", "A 49556-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 49556-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 49556-2019.docx", "A 49556-2019")</f>
         <v/>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3934,27 +3934,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 54164-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 54164-2019.xlsx", "A 54164-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 54164-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 54164-2019.png", "A 54164-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 54164-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 54164-2019.docx", "A 54164-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 54164-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 54164-2019.docx", "A 54164-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 54164-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 54164-2019.docx", "A 54164-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 54164-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 54164-2019.docx", "A 54164-2019")</f>
         <v/>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4019,27 +4019,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 61702-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 61702-2019.xlsx", "A 61702-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 61702-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 61702-2019.png", "A 61702-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 61702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 61702-2019.docx", "A 61702-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 61702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 61702-2019.docx", "A 61702-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 61702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 61702-2019.docx", "A 61702-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 61702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 61702-2019.docx", "A 61702-2019")</f>
         <v/>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4109,27 +4109,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 9820-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 9820-2020.xlsx", "A 9820-2020")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 9820-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 9820-2020.png", "A 9820-2020")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 9820-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 9820-2020.docx", "A 9820-2020")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 9820-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 9820-2020.docx", "A 9820-2020")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 9820-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 9820-2020.docx", "A 9820-2020")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 9820-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 9820-2020.docx", "A 9820-2020")</f>
         <v/>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4194,27 +4194,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 15742-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 15742-2020.xlsx", "A 15742-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 15742-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 15742-2020.png", "A 15742-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 15742-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 15742-2020.docx", "A 15742-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 15742-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 15742-2020.docx", "A 15742-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 15742-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 15742-2020.docx", "A 15742-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 15742-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 15742-2020.docx", "A 15742-2020")</f>
         <v/>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4279,27 +4279,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 42665-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 42665-2020.xlsx", "A 42665-2020")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 42665-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 42665-2020.png", "A 42665-2020")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 42665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 42665-2020.docx", "A 42665-2020")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 42665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 42665-2020.docx", "A 42665-2020")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 42665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 42665-2020.docx", "A 42665-2020")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 42665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 42665-2020.docx", "A 42665-2020")</f>
         <v/>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4364,31 +4364,31 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 44930-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 44930-2020.xlsx", "A 44930-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 44930-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 44930-2020.png", "A 44930-2020")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/knärot/A 44930-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/knärot/A 44930-2020.png", "A 44930-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 44930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 44930-2020.docx", "A 44930-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 44930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 44930-2020.docx", "A 44930-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 44930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 44930-2020.docx", "A 44930-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 44930-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 44930-2020.docx", "A 44930-2020")</f>
         <v/>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4453,27 +4453,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 48984-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 48984-2020.xlsx", "A 48984-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 48984-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 48984-2020.png", "A 48984-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 48984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 48984-2020.docx", "A 48984-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 48984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 48984-2020.docx", "A 48984-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 48984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 48984-2020.docx", "A 48984-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 48984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 48984-2020.docx", "A 48984-2020")</f>
         <v/>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4538,27 +4538,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 14096-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 14096-2021.xlsx", "A 14096-2021")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 14096-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 14096-2021.png", "A 14096-2021")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 14096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 14096-2021.docx", "A 14096-2021")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 14096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 14096-2021.docx", "A 14096-2021")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 14096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 14096-2021.docx", "A 14096-2021")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 14096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 14096-2021.docx", "A 14096-2021")</f>
         <v/>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4628,27 +4628,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 15475-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 15475-2021.xlsx", "A 15475-2021")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 15475-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 15475-2021.png", "A 15475-2021")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 15475-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 15475-2021.docx", "A 15475-2021")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 15475-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 15475-2021.docx", "A 15475-2021")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 15475-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 15475-2021.docx", "A 15475-2021")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 15475-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 15475-2021.docx", "A 15475-2021")</f>
         <v/>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4713,27 +4713,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 19103-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 19103-2021.xlsx", "A 19103-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 19103-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 19103-2021.png", "A 19103-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 19103-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 19103-2021.docx", "A 19103-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 19103-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 19103-2021.docx", "A 19103-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 19103-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 19103-2021.docx", "A 19103-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 19103-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 19103-2021.docx", "A 19103-2021")</f>
         <v/>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4803,27 +4803,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 56250-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 56250-2021.xlsx", "A 56250-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 56250-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 56250-2021.png", "A 56250-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 56250-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 56250-2021.docx", "A 56250-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 56250-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 56250-2021.docx", "A 56250-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 56250-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 56250-2021.docx", "A 56250-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 56250-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 56250-2021.docx", "A 56250-2021")</f>
         <v/>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4893,27 +4893,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 60573-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 60573-2021.xlsx", "A 60573-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 60573-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 60573-2021.png", "A 60573-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 60573-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 60573-2021.docx", "A 60573-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 60573-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 60573-2021.docx", "A 60573-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 60573-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 60573-2021.docx", "A 60573-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 60573-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 60573-2021.docx", "A 60573-2021")</f>
         <v/>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4983,27 +4983,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 69211-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 69211-2021.xlsx", "A 69211-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 69211-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 69211-2021.png", "A 69211-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 69211-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 69211-2021.docx", "A 69211-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 69211-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 69211-2021.docx", "A 69211-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 69211-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 69211-2021.docx", "A 69211-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 69211-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 69211-2021.docx", "A 69211-2021")</f>
         <v/>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5073,27 +5073,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 71127-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 71127-2021.xlsx", "A 71127-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 71127-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 71127-2021.png", "A 71127-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 71127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 71127-2021.docx", "A 71127-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 71127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 71127-2021.docx", "A 71127-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 71127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 71127-2021.docx", "A 71127-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 71127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 71127-2021.docx", "A 71127-2021")</f>
         <v/>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5158,27 +5158,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 2628-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 2628-2022.xlsx", "A 2628-2022")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 2628-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 2628-2022.png", "A 2628-2022")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 2628-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 2628-2022.docx", "A 2628-2022")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 2628-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 2628-2022.docx", "A 2628-2022")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 2628-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 2628-2022.docx", "A 2628-2022")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 2628-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 2628-2022.docx", "A 2628-2022")</f>
         <v/>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5243,27 +5243,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 5911-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 5911-2022.xlsx", "A 5911-2022")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 5911-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 5911-2022.png", "A 5911-2022")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 5911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 5911-2022.docx", "A 5911-2022")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 5911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 5911-2022.docx", "A 5911-2022")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 5911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 5911-2022.docx", "A 5911-2022")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 5911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 5911-2022.docx", "A 5911-2022")</f>
         <v/>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5333,27 +5333,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17513-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 17513-2022.xlsx", "A 17513-2022")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17513-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 17513-2022.png", "A 17513-2022")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 17513-2022.docx", "A 17513-2022")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 17513-2022.docx", "A 17513-2022")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 17513-2022.docx", "A 17513-2022")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 17513-2022.docx", "A 17513-2022")</f>
         <v/>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5423,27 +5423,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 27984-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 27984-2022.xlsx", "A 27984-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 27984-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 27984-2022.png", "A 27984-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 27984-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 27984-2022.docx", "A 27984-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 27984-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 27984-2022.docx", "A 27984-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 27984-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 27984-2022.docx", "A 27984-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 27984-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 27984-2022.docx", "A 27984-2022")</f>
         <v/>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5508,27 +5508,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 28123-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 28123-2022.xlsx", "A 28123-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 28123-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 28123-2022.png", "A 28123-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 28123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 28123-2022.docx", "A 28123-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 28123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 28123-2022.docx", "A 28123-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 28123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 28123-2022.docx", "A 28123-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 28123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 28123-2022.docx", "A 28123-2022")</f>
         <v/>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5593,27 +5593,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 43041-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 43041-2022.xlsx", "A 43041-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 43041-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 43041-2022.png", "A 43041-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 43041-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 43041-2022.docx", "A 43041-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 43041-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 43041-2022.docx", "A 43041-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 43041-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 43041-2022.docx", "A 43041-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 43041-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 43041-2022.docx", "A 43041-2022")</f>
         <v/>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5678,27 +5678,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 46496-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 46496-2022.xlsx", "A 46496-2022")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 46496-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 46496-2022.png", "A 46496-2022")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 46496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 46496-2022.docx", "A 46496-2022")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 46496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 46496-2022.docx", "A 46496-2022")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 46496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 46496-2022.docx", "A 46496-2022")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 46496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 46496-2022.docx", "A 46496-2022")</f>
         <v/>
       </c>
     </row>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5763,27 +5763,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 56128-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 56128-2022.xlsx", "A 56128-2022")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 56128-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 56128-2022.png", "A 56128-2022")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 56128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 56128-2022.docx", "A 56128-2022")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 56128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 56128-2022.docx", "A 56128-2022")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 56128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 56128-2022.docx", "A 56128-2022")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 56128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 56128-2022.docx", "A 56128-2022")</f>
         <v/>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5853,27 +5853,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 1213-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 1213-2023.xlsx", "A 1213-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 1213-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 1213-2023.png", "A 1213-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 1213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 1213-2023.docx", "A 1213-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 1213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 1213-2023.docx", "A 1213-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 1213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 1213-2023.docx", "A 1213-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 1213-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 1213-2023.docx", "A 1213-2023")</f>
         <v/>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5938,27 +5938,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 1716-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 1716-2023.xlsx", "A 1716-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 1716-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 1716-2023.png", "A 1716-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 1716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 1716-2023.docx", "A 1716-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 1716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 1716-2023.docx", "A 1716-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 1716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 1716-2023.docx", "A 1716-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 1716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 1716-2023.docx", "A 1716-2023")</f>
         <v/>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6023,27 +6023,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 3397-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 3397-2023.xlsx", "A 3397-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 3397-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 3397-2023.png", "A 3397-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 3397-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 3397-2023.docx", "A 3397-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 3397-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 3397-2023.docx", "A 3397-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 3397-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 3397-2023.docx", "A 3397-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 3397-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 3397-2023.docx", "A 3397-2023")</f>
         <v/>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6108,27 +6108,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 4764-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 4764-2023.xlsx", "A 4764-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 4764-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 4764-2023.png", "A 4764-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 4764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 4764-2023.docx", "A 4764-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 4764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 4764-2023.docx", "A 4764-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 4764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 4764-2023.docx", "A 4764-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 4764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 4764-2023.docx", "A 4764-2023")</f>
         <v/>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6193,27 +6193,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 8719-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 8719-2023.xlsx", "A 8719-2023")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 8719-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 8719-2023.png", "A 8719-2023")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 8719-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 8719-2023.docx", "A 8719-2023")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 8719-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 8719-2023.docx", "A 8719-2023")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 8719-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 8719-2023.docx", "A 8719-2023")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 8719-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 8719-2023.docx", "A 8719-2023")</f>
         <v/>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6278,27 +6278,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 22137-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 22137-2023.xlsx", "A 22137-2023")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 22137-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 22137-2023.png", "A 22137-2023")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 22137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 22137-2023.docx", "A 22137-2023")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 22137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 22137-2023.docx", "A 22137-2023")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 22137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 22137-2023.docx", "A 22137-2023")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 22137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 22137-2023.docx", "A 22137-2023")</f>
         <v/>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6368,27 +6368,27 @@
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 23864-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 23864-2023.xlsx", "A 23864-2023")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 23864-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 23864-2023.png", "A 23864-2023")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 23864-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 23864-2023.docx", "A 23864-2023")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 23864-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 23864-2023.docx", "A 23864-2023")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 23864-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 23864-2023.docx", "A 23864-2023")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 23864-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 23864-2023.docx", "A 23864-2023")</f>
         <v/>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6458,27 +6458,27 @@
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 33573-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 33573-2023.xlsx", "A 33573-2023")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 33573-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 33573-2023.png", "A 33573-2023")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 33573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 33573-2023.docx", "A 33573-2023")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 33573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 33573-2023.docx", "A 33573-2023")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 33573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 33573-2023.docx", "A 33573-2023")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 33573-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 33573-2023.docx", "A 33573-2023")</f>
         <v/>
       </c>
     </row>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6543,27 +6543,27 @@
         </is>
       </c>
       <c r="S69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 35948-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 35948-2023.xlsx", "A 35948-2023")</f>
         <v/>
       </c>
       <c r="T69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 35948-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 35948-2023.png", "A 35948-2023")</f>
         <v/>
       </c>
       <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 35948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 35948-2023.docx", "A 35948-2023")</f>
         <v/>
       </c>
       <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 35948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 35948-2023.docx", "A 35948-2023")</f>
         <v/>
       </c>
       <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 35948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 35948-2023.docx", "A 35948-2023")</f>
         <v/>
       </c>
       <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 35948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 35948-2023.docx", "A 35948-2023")</f>
         <v/>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6628,27 +6628,27 @@
         </is>
       </c>
       <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 38229-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 38229-2023.xlsx", "A 38229-2023")</f>
         <v/>
       </c>
       <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 38229-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 38229-2023.png", "A 38229-2023")</f>
         <v/>
       </c>
       <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 38229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 38229-2023.docx", "A 38229-2023")</f>
         <v/>
       </c>
       <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 38229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 38229-2023.docx", "A 38229-2023")</f>
         <v/>
       </c>
       <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 38229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 38229-2023.docx", "A 38229-2023")</f>
         <v/>
       </c>
       <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 38229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 38229-2023.docx", "A 38229-2023")</f>
         <v/>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6713,27 +6713,27 @@
         </is>
       </c>
       <c r="S71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 39872-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/artfynd/A 39872-2023.xlsx", "A 39872-2023")</f>
         <v/>
       </c>
       <c r="T71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 39872-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/kartor/A 39872-2023.png", "A 39872-2023")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 39872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomål/A 39872-2023.docx", "A 39872-2023")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 39872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/klagomålsmail/A 39872-2023.docx", "A 39872-2023")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 39872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsyn/A 39872-2023.docx", "A 39872-2023")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 39872-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINKOPING/tillsynsmail/A 39872-2023.docx", "A 39872-2023")</f>
         <v/>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y783"/>
+  <dimension ref="A1:Y784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48254,7 +48254,7 @@
       </c>
       <c r="R782" s="2" t="inlineStr"/>
     </row>
-    <row r="783">
+    <row r="783" ht="15" customHeight="1">
       <c r="A783" t="inlineStr">
         <is>
           <t>A 40148-2023</t>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48310,6 +48310,63 @@
         <v>0</v>
       </c>
       <c r="R783" s="2" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>A 43703-2023</t>
+        </is>
+      </c>
+      <c r="B784" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C784" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>LINKÖPING</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="n">
+        <v>0</v>
+      </c>
+      <c r="J784" t="n">
+        <v>0</v>
+      </c>
+      <c r="K784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N784" t="n">
+        <v>0</v>
+      </c>
+      <c r="O784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R784" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y784"/>
+  <dimension ref="A1:Y785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22812,7 +22812,7 @@
         <v>43999</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44019</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44022</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44025</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44027</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44027</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44029</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44033</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44034</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44041</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44049</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44055</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44057</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44060</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44060</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>44074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>44074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44077</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44082</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44082</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44084</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44085</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>44085</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44086</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44086</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44087</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44089</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44089</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>44090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>44095</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44095</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44097</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44099</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44103</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>44104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44109</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44110</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>44116</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44123</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>44130</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44130</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44146</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44147</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44151</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44151</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44152</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>44153</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44159</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44165</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44180</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44180</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44180</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44180</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44180</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44180</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44180</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44200</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44200</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44201</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44208</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44218</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44218</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44221</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44221</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44221</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44228</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44229</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44229</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44237</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44237</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44238</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44253</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44256</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44266</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44271</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44274</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44302</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44342</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>44342</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44343</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44356</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44357</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44369</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44371</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44378</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>44378</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>44378</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>44393</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44393</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>44405</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>44405</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44405</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44411</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44411</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44412</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44412</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44412</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44413</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44413</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44413</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
         <v>44413</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44419</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44420</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44420</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>44428</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>44431</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>44433</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>44433</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>44434</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44441</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44442</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44442</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44447</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44449</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44454</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44459</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44460</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44460</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44466</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44467</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44469</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44469</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44475</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44476</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44478</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44478</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44481</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32353,7 +32353,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32415,7 +32415,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>44488</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44496</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>44497</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>44498</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44501</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44509</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>44510</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>44510</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>44510</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44511</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>44515</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>44515</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44515</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>44515</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44515</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44515</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>44516</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>44518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>44523</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>44525</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44533</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44537</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33890,7 +33890,7 @@
         <v>44547</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44558</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44564</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44564</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44565</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44565</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44571</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44571</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44574</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44582</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44587</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>44588</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44588</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44589</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44595</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44600</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44600</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44600</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44600</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44600</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44600</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35412,7 +35412,7 @@
         <v>44600</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35474,7 +35474,7 @@
         <v>44602</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>44608</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44608</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44608</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44616</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44622</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44627</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44628</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44628</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44638</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36054,7 +36054,7 @@
         <v>44638</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>44641</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44643</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44643</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44652</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44658</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44658</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44665</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>44679</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44679</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44690</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44697</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44740</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44743</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44748</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44748</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44748</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44750</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44753</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>44764</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37219,7 +37219,7 @@
         <v>44767</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>44767</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>44767</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44767</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>44768</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44768</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>44768</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>44776</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>44776</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>44777</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>44783</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>44785</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44785</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44791</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38017,7 +38017,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38074,7 +38074,7 @@
         <v>44796</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>44803</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>44803</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>44804</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44809</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>44810</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>44810</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38483,7 +38483,7 @@
         <v>44812</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>44823</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>44824</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44826</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44830</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>44830</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>44830</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>44836</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44841</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44845</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44845</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>44846</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44848</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>44852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>44855</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>44855</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>44855</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39457,7 +39457,7 @@
         <v>44858</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39514,7 +39514,7 @@
         <v>44859</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39576,7 +39576,7 @@
         <v>44859</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39633,7 +39633,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39690,7 +39690,7 @@
         <v>44862</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>44862</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>44865</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39866,7 +39866,7 @@
         <v>44865</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39923,7 +39923,7 @@
         <v>44873</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>44880</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>44880</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>44881</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>44882</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44882</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40280,7 +40280,7 @@
         <v>44882</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40342,7 +40342,7 @@
         <v>44884</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44888</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40456,7 +40456,7 @@
         <v>44888</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40513,7 +40513,7 @@
         <v>44889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40575,7 +40575,7 @@
         <v>44894</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         <v>44909</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>44916</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>44929</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40932,7 +40932,7 @@
         <v>44930</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44930</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>44930</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41118,7 +41118,7 @@
         <v>44931</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41175,7 +41175,7 @@
         <v>44931</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41232,7 +41232,7 @@
         <v>44933</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41289,7 +41289,7 @@
         <v>44933</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>44936</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41403,7 +41403,7 @@
         <v>44936</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>44936</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44936</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>44937</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41631,7 +41631,7 @@
         <v>44937</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44939</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41745,7 +41745,7 @@
         <v>44942</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         <v>44944</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41859,7 +41859,7 @@
         <v>44945</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>44945</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44945</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44949</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44949</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>44949</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44949</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44951</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44951</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44953</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44958</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44959</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44964</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42719,7 +42719,7 @@
         <v>44964</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42776,7 +42776,7 @@
         <v>44967</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44970</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
         <v>44980</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>44987</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43014,7 +43014,7 @@
         <v>44993</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43071,7 +43071,7 @@
         <v>44994</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43128,7 +43128,7 @@
         <v>44999</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43185,7 +43185,7 @@
         <v>45003</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>45005</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>45012</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45013</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>45015</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>45015</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>45020</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45022</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45042</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45043</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43765,7 +43765,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45044</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43884,7 +43884,7 @@
         <v>45044</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43941,7 +43941,7 @@
         <v>45048</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45048</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45049</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>45055</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45056</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45068</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45069</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45071</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45071</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45076</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45082</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45086</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44836,7 +44836,7 @@
         <v>45086</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44893,7 +44893,7 @@
         <v>45089</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44955,7 +44955,7 @@
         <v>45090</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45012,7 +45012,7 @@
         <v>45093</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45069,7 +45069,7 @@
         <v>45096</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45131,7 +45131,7 @@
         <v>45098</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45188,7 +45188,7 @@
         <v>45103</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45250,7 +45250,7 @@
         <v>45105</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>45107</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45107</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45107</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45111</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45111</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45111</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45721,7 +45721,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45778,7 +45778,7 @@
         <v>45114</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45835,7 +45835,7 @@
         <v>45116</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45116</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
         <v>45117</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45120</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46063,7 +46063,7 @@
         <v>45120</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46120,7 +46120,7 @@
         <v>45120</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46177,7 +46177,7 @@
         <v>45120</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>45121</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46291,7 +46291,7 @@
         <v>45121</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46348,7 +46348,7 @@
         <v>45121</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46405,7 +46405,7 @@
         <v>45125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46462,7 +46462,7 @@
         <v>45138</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46519,7 +46519,7 @@
         <v>45139</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46576,7 +46576,7 @@
         <v>45140</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46633,7 +46633,7 @@
         <v>45140</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45140</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>45140</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45140</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>45140</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>45140</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>45141</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45142</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>45142</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>45146</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47208,7 +47208,7 @@
         <v>45146</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>45146</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45146</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>45147</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45147</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45149</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45153</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         <v>45155</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45159</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>45160</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45160</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45163</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45163</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48093,7 +48093,7 @@
         <v>45163</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48150,7 +48150,7 @@
         <v>45166</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>45168</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>45169</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48311,7 +48311,7 @@
       </c>
       <c r="R783" s="2" t="inlineStr"/>
     </row>
-    <row r="784">
+    <row r="784" ht="15" customHeight="1">
       <c r="A784" t="inlineStr">
         <is>
           <t>A 43703-2023</t>
@@ -48321,7 +48321,7 @@
         <v>45187</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48367,6 +48367,68 @@
         <v>0</v>
       </c>
       <c r="R784" s="2" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>A 43934-2023</t>
+        </is>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C785" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>LINKÖPING</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="n">
+        <v>0</v>
+      </c>
+      <c r="J785" t="n">
+        <v>0</v>
+      </c>
+      <c r="K785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N785" t="n">
+        <v>0</v>
+      </c>
+      <c r="O785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R785" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>43751</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43479</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44180</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>43878</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44421</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44479</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44965</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43489</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43656</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44085</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44679</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44679</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43423</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43714</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44294</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44679</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44745</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44993</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>45168</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43390</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43510</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43706</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43731</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43732</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43752</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43784</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43881</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44088</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44285</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44597</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44745</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44746</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44833</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>44930</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44938</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44949</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44957</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44973</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45078</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45131</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45161</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45168</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>43340</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43362</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43374</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43374</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43377</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43396</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43397</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43398</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43417</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43417</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43417</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43419</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43422</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43423</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43423</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43427</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43432</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43432</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43434</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43437</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43441</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43446</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>43453</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>43468</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>43468</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>43469</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>43469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>43472</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>43472</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43473</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>43473</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>43479</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43480</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43483</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43490</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43493</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43494</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43494</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43494</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43505</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43505</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43508</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43509</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43510</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>43510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43510</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>43511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>43516</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>43516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>43517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43521</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43530</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43537</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43543</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43543</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43544</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43557</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43558</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43559</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43564</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43588</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>43593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43606</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43606</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43606</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43619</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43621</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43633</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43633</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43641</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43649</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43650</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>43650</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>43650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43658</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43663</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43675</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43691</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>43691</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>43691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>43692</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43692</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>43692</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>43700</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>43707</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>43707</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43709</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>43712</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>43713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>43718</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>43724</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>43724</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43724</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>43724</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43731</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43731</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43732</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43732</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43732</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43732</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43732</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43732</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43732</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43732</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43732</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43735</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43735</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43738</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43746</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43746</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>43749</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>43752</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>43753</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43754</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43756</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>43756</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43759</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43761</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43761</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43762</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43763</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43763</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>43766</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43766</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>43767</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43767</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43767</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>43767</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43767</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43767</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43772</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>43774</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43776</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43776</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>43781</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>43781</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>43794</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>43794</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>43795</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43801</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43801</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43802</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43802</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43803</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43808</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>43810</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43810</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43825</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43833</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>43839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43839</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>43847</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>43847</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>43851</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>43857</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43857</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>43858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>43860</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>43864</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43864</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43864</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>43865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>43865</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>43871</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>43872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>43874</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43878</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43878</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>43882</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43882</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>43882</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>43886</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>43889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>43893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>43894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>43894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>43902</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>43915</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43915</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>43915</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>43915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>43915</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>43923</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>43923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>43937</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>43937</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>43941</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>43944</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>43959</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>43963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>43964</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>43965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>43966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>43971</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>43990</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>43990</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43993</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>43994</v>
       </c>
       <c r="C346" s="1" t="n">
-        